--- a/부품목록.xlsx
+++ b/부품목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\시분설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF6B94-3089-478E-93EA-800A795549D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925EF50E-4E5A-47E9-8559-56F384F1E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1005" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>부품명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,6 +247,23 @@
   </si>
   <si>
     <t>적당한 크기의 버튼 찾아서 구입...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.54 인치 LCD TFT IPS 디스플레이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/openidea/products/5301336876</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기 디스플레이/색깔 다양하게 표현가능/
+핀개수는 좀 늘어남-&gt;OLED랑 비교 후 더 괜찮은거로 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가로 구매할만한 것들</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +427,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,20 +444,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +476,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -751,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:K19"/>
+  <dimension ref="C5:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,31 +795,31 @@
   <sheetData>
     <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -816,14 +839,14 @@
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>8200</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>H7*G7</f>
         <v>16400</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="18" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -846,14 +869,14 @@
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>12380</v>
       </c>
-      <c r="I8" s="7">
-        <f>H8*G7</f>
+      <c r="I8" s="6">
+        <f>H8*G8</f>
         <v>24760</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -870,23 +893,23 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" ref="I9:I15" si="0">H9*G8</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -900,21 +923,21 @@
       <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>2150</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
@@ -930,14 +953,14 @@
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>5500</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -960,14 +983,14 @@
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>3030</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>6060</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -988,14 +1011,14 @@
       <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>2000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1016,14 +1039,14 @@
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>470</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>940</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1046,14 +1069,14 @@
       <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>3200</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -1072,39 +1095,70 @@
       <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="14">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <f>SUM(H7:H15)</f>
         <v>38930</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <f>D19*2</f>
         <v>77860</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>21300</v>
+      </c>
+      <c r="I23" s="7">
+        <f>H23*G23</f>
+        <v>42600</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1123,8 +1177,9 @@
     <hyperlink ref="J13" r:id="rId7" xr:uid="{EDBA2307-5F95-49B3-8A46-7E54219B9101}"/>
     <hyperlink ref="J14" r:id="rId8" xr:uid="{40CF1BBF-D1CD-4259-80A1-CDC4A77D9A67}"/>
     <hyperlink ref="J15" r:id="rId9" xr:uid="{65EAD2B2-EC4C-4ED6-BD80-2EDA37E16622}"/>
+    <hyperlink ref="J23" r:id="rId10" xr:uid="{E91B2B68-812B-488A-BCE5-62EF13F64ACB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/부품목록.xlsx
+++ b/부품목록.xlsx
@@ -1,31 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\시분설\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\218\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925EF50E-4E5A-47E9-8559-56F384F1E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091720B0-E542-4794-B75B-259893B67882}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -88,14 +81,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FTDI 모듈</t>
-  </si>
-  <si>
     <t>리튬폴리머 배터리 충전모듈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -187,13 +173,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>납땜 필요</t>
-  </si>
-  <si>
-    <t>납땜 필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://smartstore.naver.com/openidea/products/5788259631</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,22 +185,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://smartstore.naver.com/openidea/products/4834257629</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://smartstore.naver.com/openidea/products/4958383622</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://smartstore.naver.com/openidea/products/4833009692</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://smartstore.naver.com/openidea/products/4839161121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>부품가격 총합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -238,15 +205,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3000원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>OLED 디스플레이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>적당한 크기의 버튼 찾아서 구입...</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -263,7 +222,41 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추가로 구매할만한 것들</t>
+    <t>https://smartstore.naver.com/openidea/products/5216431531</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTDI 모듈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/openidea/products/4833188826</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN-TB16-001</t>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/openidea/products/5216540434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000원(6만원이상무료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가 낮음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원 X?</t>
+  </si>
+  <si>
+    <t>지원 X?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품가격 총합(단가 낮은거 제외)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +303,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -325,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -419,6 +429,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -427,7 +446,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,9 +458,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,6 +493,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -489,8 +511,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -774,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:K23"/>
+  <dimension ref="C5:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,127 +829,128 @@
     <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="14" t="s">
+    <row r="5" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>8200</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f>H7*G7</f>
         <v>16400</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>12380</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>H8*G8</f>
         <v>24760</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>39</v>
+      <c r="J8" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>602030</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>2000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" ref="I9:I15" si="0">H9*G8</f>
         <v>4000</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
@@ -921,53 +958,52 @@
         <v>552535</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2150</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>4300</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>5500</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
@@ -975,196 +1011,218 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="7">
-        <v>3030</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="0"/>
-        <v>6060</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>46</v>
+        <v>20000</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="H13" s="6">
+        <v>5220</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>47</v>
+        <v>10440</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>470</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>940</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>48</v>
+      <c r="J14" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="7">
-        <v>3200</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="H15" s="6">
+        <v>5300</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="0"/>
-        <v>6400</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+        <v>10600</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="3:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>21300</v>
+      </c>
+      <c r="I16" s="6">
+        <f>H16*G16</f>
+        <v>42600</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10">
+        <f>SUM(H7:H16)</f>
+        <v>72520</v>
+      </c>
+      <c r="E19" s="10">
+        <f>D19*2</f>
+        <v>145040</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-      <c r="D19" s="11">
-        <f>SUM(H7:H15)</f>
-        <v>38930</v>
-      </c>
-      <c r="E19" s="11">
-        <f>D19*2</f>
-        <v>77860</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>54</v>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7">
-        <v>21300</v>
-      </c>
-      <c r="I23" s="7">
-        <f>H23*G23</f>
-        <v>42600</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10">
+        <f>SUM(H7,H8,H11,H12,H13,H15,H16)</f>
+        <v>67900</v>
+      </c>
+      <c r="E22" s="10">
+        <f>D22*2</f>
+        <v>135800</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1177,7 +1235,7 @@
     <hyperlink ref="J13" r:id="rId7" xr:uid="{EDBA2307-5F95-49B3-8A46-7E54219B9101}"/>
     <hyperlink ref="J14" r:id="rId8" xr:uid="{40CF1BBF-D1CD-4259-80A1-CDC4A77D9A67}"/>
     <hyperlink ref="J15" r:id="rId9" xr:uid="{65EAD2B2-EC4C-4ED6-BD80-2EDA37E16622}"/>
-    <hyperlink ref="J23" r:id="rId10" xr:uid="{E91B2B68-812B-488A-BCE5-62EF13F64ACB}"/>
+    <hyperlink ref="J16" r:id="rId10" xr:uid="{119A8FB8-75D2-49D5-9E27-C45F11CC9997}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
